--- a/public/Workload.xlsx
+++ b/public/Workload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -82,12 +83,6 @@
     <t>Điều Khiển Tự Động Qua Máy Tính</t>
   </si>
   <si>
-    <t>NL33A</t>
-  </si>
-  <si>
-    <t>Nhà Máy Nhiệt Điện</t>
-  </si>
-  <si>
     <t>Học kỳ</t>
   </si>
   <si>
@@ -97,12 +92,6 @@
     <t>CNTT</t>
   </si>
   <si>
-    <t>QHCC</t>
-  </si>
-  <si>
-    <t>K19PR</t>
-  </si>
-  <si>
     <t>K19T1,2</t>
   </si>
   <si>
@@ -118,9 +107,6 @@
     <t>T154725</t>
   </si>
   <si>
-    <t>T155444</t>
-  </si>
-  <si>
     <t>Loc</t>
   </si>
   <si>
@@ -128,9 +114,6 @@
   </si>
   <si>
     <t>Nguyen Loc</t>
-  </si>
-  <si>
-    <t>Loc Nguyen</t>
   </si>
   <si>
     <t>MÃ KHOA</t>
@@ -284,12 +267,6 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,9 +324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +355,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -683,270 +664,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="A1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="A3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" ht="21.75">
-      <c r="A5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>20</v>
+      <c r="O6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="25"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>60</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="19">
+      <c r="I8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="17">
         <v>50</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>50.5</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>40</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <v>10.5</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="26">
+      <c r="N8" s="20"/>
+      <c r="O8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="19">
-        <v>60</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="19">
-        <v>50</v>
-      </c>
-      <c r="K9" s="21">
-        <v>60</v>
-      </c>
-      <c r="L9" s="21">
-        <v>40</v>
-      </c>
-      <c r="M9" s="21">
-        <v>20</v>
-      </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="26">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="9" spans="1:16" s="35" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>

--- a/public/Workload.xlsx
+++ b/public/Workload.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,9 +88,6 @@
     <t>Giảng viên cơ hữu/Bán cơ hữu</t>
   </si>
   <si>
-    <t>CNTT</t>
-  </si>
-  <si>
     <t>K19T1,2</t>
   </si>
   <si>
@@ -117,6 +113,9 @@
   </si>
   <si>
     <t>MÃ KHOA</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -646,7 +645,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -665,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -702,10 +701,10 @@
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
       <c r="A3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -804,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>18</v>
@@ -837,16 +836,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>16</v>
@@ -858,7 +857,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="17">
         <v>50</v>
@@ -874,7 +873,7 @@
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P8" s="23">
         <v>1</v>

--- a/public/Workload.xlsx
+++ b/public/Workload.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,6 +89,9 @@
     <t>Giảng viên cơ hữu/Bán cơ hữu</t>
   </si>
   <si>
+    <t>CNTT</t>
+  </si>
+  <si>
     <t>K19T1,2</t>
   </si>
   <si>
@@ -113,9 +117,6 @@
   </si>
   <si>
     <t>MÃ KHOA</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
 </sst>
 </file>
@@ -645,7 +646,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -664,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -701,10 +702,10 @@
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -803,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>18</v>
@@ -836,16 +837,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>16</v>
@@ -857,7 +858,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="17">
         <v>50</v>
@@ -873,7 +874,7 @@
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P8" s="23">
         <v>1</v>
